--- a/output/condition/播磨ここね_condition.xlsx
+++ b/output/condition/播磨ここね_condition.xlsx
@@ -1,147 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
-  <si>
-    <t>レポート年</t>
-  </si>
-  <si>
-    <t>レポート月</t>
-  </si>
-  <si>
-    <t>名前</t>
-  </si>
-  <si>
-    <t>心拍数</t>
-  </si>
-  <si>
-    <t>体温</t>
-  </si>
-  <si>
-    <t>SPO2</t>
-  </si>
-  <si>
-    <t>体調 [疲労感]</t>
-  </si>
-  <si>
-    <t>体調 [倦怠感]</t>
-  </si>
-  <si>
-    <t>体調 [食欲]</t>
-  </si>
-  <si>
-    <t>体調 [今の体調]</t>
-  </si>
-  <si>
-    <t>体調 [意欲]</t>
-  </si>
-  <si>
-    <t>ケガなど [首の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [肩の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [背中の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [腰の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [下腿部の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [足部の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [その他]</t>
-  </si>
-  <si>
-    <t>上記で「その他」と回答した場合に記載</t>
-  </si>
-  <si>
-    <t>2020年度</t>
-  </si>
-  <si>
-    <t>1月</t>
-  </si>
-  <si>
-    <t>2月</t>
-  </si>
-  <si>
-    <t>3月</t>
-  </si>
-  <si>
-    <t>4月</t>
-  </si>
-  <si>
-    <t>5月</t>
-  </si>
-  <si>
-    <t>6月</t>
-  </si>
-  <si>
-    <t>7月</t>
-  </si>
-  <si>
-    <t>8月</t>
-  </si>
-  <si>
-    <t>9月</t>
-  </si>
-  <si>
-    <t>10月</t>
-  </si>
-  <si>
-    <t>11月</t>
-  </si>
-  <si>
-    <t>12月</t>
-  </si>
-  <si>
-    <t>播磨ここね</t>
-  </si>
-  <si>
-    <t>手首を痛めた</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -156,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,781 +420,921 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>レポート年</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>レポート月</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>心拍数</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>体温</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>SPO2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>体調 [疲労感]</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>体調 [倦怠感]</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>体調 [食欲]</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>体調 [今の体調]</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>体調 [意欲]</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [首の痛み]</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [肩の痛み]</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [背中の痛み]</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [腰の痛み]</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [下腿部の痛み]</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [足部の痛み]</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [その他]</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>上記で「その他」と回答した場合に記載</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1月</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>播磨ここね</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>146</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>36.76616104999232</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>98.41320563701684</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>6.387331417604557</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>2.537869830053752</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>4.79345086475921</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>9.691253013722033</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>9.080457234663019</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>3.867127377405599</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>2.392685089049815</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>6.139285666233366</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>1.092473242717237</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>6.152053340180954</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>7.679735726576416</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>2.666945600878734</v>
       </c>
-      <c r="S2" t="s">
-        <v>33</v>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2月</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>播磨ここね</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>143</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>37.01841884571958</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>96.8046631100287</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>9.964332137446947</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>6.258643189512724</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>5.860782263391673</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>9.088608935933078</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>6.329116180865572</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>1.631623041002829</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>4.12732081748908</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>3.484041510192664</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>6.908070065755568</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>7.927281485943837</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>9.608664649649565</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>4.374198424969438</v>
       </c>
-      <c r="S3" t="s">
-        <v>33</v>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3月</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>播磨ここね</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>147</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>36.57981244127198</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>96.98673973607936</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>9.478320535232308</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>1.386306452723286</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>7.897955008441459</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>9.828876196933285</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>9.887334474325947</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>9.395216897559514</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>5.359832289853049</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>9.545031173881215</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>3.649115700145454</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>9.405294975402837</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>8.460160018876655</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>9.494993320452275</v>
       </c>
-      <c r="S4" t="s">
-        <v>33</v>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4月</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>播磨ここね</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>135</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>37.00986484282207</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>97.65971244569981</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>7.718428236328487</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>4.509467019299517</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>7.686382085280036</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>9.799775255339005</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>3.918682111788686</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>8.420359046588533</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>6.155927792730212</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>6.365174707973457</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>3.277538281242339</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>1.946648166437166</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>9.447467365130294</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>4.892769103378029</v>
       </c>
-      <c r="S5" t="s">
-        <v>33</v>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5月</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>播磨ここね</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>149</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>36.9284137780312</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>98.15127388479304</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>5.268251851732393</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>5.780818453414954</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>7.934593132929688</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>5.657571663360281</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>3.351664238375928</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>5.277702564812953</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>1.790680068282329</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>7.134113845119742</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>7.777755738345263</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>7.740176445629741</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>9.533691088040346</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>2.458867838823995</v>
       </c>
-      <c r="S6" t="s">
-        <v>33</v>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6月</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>播磨ここね</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>140</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>36.66821439304341</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>95.68504806028047</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>8.322706690485738</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>8.267551133220934</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>5.107528388570849</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>9.369152377900805</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>5.150691233818048</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>9.174915022125338</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>1.15107653123966</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>6.242252334116924</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>1.914530041910423</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>6.451608876119541</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>3.259497092800634</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>5.497063577372163</v>
       </c>
-      <c r="S7" t="s">
-        <v>33</v>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7月</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>播磨ここね</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>144</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>36.59248984476987</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>97.52502597046858</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>8.612347963525398</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>6.277888655952416</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>2.319237677548251</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>7.673633164600297</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>8.344463047390763</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>6.813381021894241</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>3.051785112992636</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>8.790954221558092</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>6.206584419545221</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>8.703561087433453</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>2.767034057254012</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>3.013658225381589</v>
       </c>
-      <c r="S8" t="s">
-        <v>33</v>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8月</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>播磨ここね</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>136</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>36.15104399985941</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>97.45739161657688</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>5.549312914539787</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>2.148765643543987</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>8.325027241008247</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>2.323894937358517</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>1.901656433378102</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>7.655584217888128</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>9.231716683718814</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>8.915744601030772</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>3.59060080357</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>3.706289803611603</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>3.832371731269121</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>4.621316073526295</v>
       </c>
-      <c r="S9" t="s">
-        <v>33</v>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9月</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>播磨ここね</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>136</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>35.92488246483788</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>97.23406429048208</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>2.016181334465344</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>1.875190521554208</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>4.623704850736026</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>6.481159306015849</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>4.730437885743372</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>4.967647092802332</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>3.59939356045054</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>4.337384030255353</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>8.91847434374364</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>5.752904403051229</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>2.358185635855159</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>7.823497932395458</v>
       </c>
-      <c r="S10" t="s">
-        <v>33</v>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10月</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>播磨ここね</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>139</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>37.3984000633214</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>98.39861507832921</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>6.166104440623894</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>3.891859591461078</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>1.956121875343278</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>5.497238081555679</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>7.300355218892678</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>7.98168572259209</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>9.047527905800967</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>6.383072250683833</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>3.857453812371148</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>1.624678291339963</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>4.284885920892136</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>4.130120748758591</v>
       </c>
-      <c r="S11" t="s">
-        <v>33</v>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11月</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>播磨ここね</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>146</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>36.41003636706944</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>95.3710551645628</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>4.082967545732794</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>7.926013315198761</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>2.067213856820675</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>5.982030012901632</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>5.839463999461746</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>9.994266417174689</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>4.870865670492984</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>6.335035644698754</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="n">
         <v>4.532363406320427</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>9.872180832080462</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>6.028642948036552</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>4.853205020956266</v>
       </c>
-      <c r="S12" t="s">
-        <v>33</v>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12月</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>播磨ここね</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>143</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>36.97924178538148</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>96.45567409245587</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>7.612529379642265</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>4.988775403495647</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>3.733837250101107</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>4.151206166860392</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>5.192745264175275</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>2.220683447166601</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>8.163242325498512</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="n">
         <v>4.329890593892265</v>
       </c>
-      <c r="O13">
+      <c r="O13" t="n">
         <v>4.635173642993215</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>2.624204252866012</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="n">
         <v>2.335373433816994</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="n">
         <v>4.113740224985986</v>
       </c>
-      <c r="S13" t="s">
-        <v>33</v>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>